--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H2">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I2">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J2">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N2">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O2">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P2">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q2">
-        <v>808.4569121487182</v>
+        <v>785.5327360516687</v>
       </c>
       <c r="R2">
-        <v>7276.112209338464</v>
+        <v>7069.794624465018</v>
       </c>
       <c r="S2">
-        <v>0.07108387456252101</v>
+        <v>0.06014068823463119</v>
       </c>
       <c r="T2">
-        <v>0.08120311992489049</v>
+        <v>0.07067302971210095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H3">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I3">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J3">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P3">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q3">
-        <v>36.994035871694</v>
+        <v>33.11110311139522</v>
       </c>
       <c r="R3">
-        <v>332.946322845246</v>
+        <v>297.9999280025569</v>
       </c>
       <c r="S3">
-        <v>0.003252714357374634</v>
+        <v>0.002534998782273748</v>
       </c>
       <c r="T3">
-        <v>0.003715759103859659</v>
+        <v>0.002978949019685608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H4">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I4">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J4">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N4">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O4">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P4">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q4">
-        <v>8.711433562104</v>
+        <v>2.473997321615555</v>
       </c>
       <c r="R4">
-        <v>78.40290205893601</v>
+        <v>22.26597589454</v>
       </c>
       <c r="S4">
-        <v>0.0007659560346172471</v>
+        <v>0.0001894101859592101</v>
       </c>
       <c r="T4">
-        <v>0.0008749947877631845</v>
+        <v>0.0002225812855324387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H5">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I5">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J5">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N5">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O5">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P5">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q5">
-        <v>319.501864836747</v>
+        <v>429.7722266091168</v>
       </c>
       <c r="R5">
-        <v>1917.011189020482</v>
+        <v>2578.633359654701</v>
       </c>
       <c r="S5">
-        <v>0.02809232024769804</v>
+        <v>0.03290352687567953</v>
       </c>
       <c r="T5">
-        <v>0.0213942947828096</v>
+        <v>0.0257772455529119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H6">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I6">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J6">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N6">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O6">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P6">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q6">
-        <v>7.407147077454</v>
+        <v>2.544767209242222</v>
       </c>
       <c r="R6">
-        <v>66.664323697086</v>
+        <v>22.90290488318</v>
       </c>
       <c r="S6">
-        <v>0.0006512761605568753</v>
+        <v>0.0001948283557601887</v>
       </c>
       <c r="T6">
-        <v>0.0007439894982568403</v>
+        <v>0.0002289483306489805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J7">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N7">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O7">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P7">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q7">
-        <v>2310.369207858299</v>
+        <v>2508.111625770625</v>
       </c>
       <c r="R7">
-        <v>20793.3228707247</v>
+        <v>22573.00463193563</v>
       </c>
       <c r="S7">
-        <v>0.2031400715320989</v>
+        <v>0.1920219901990228</v>
       </c>
       <c r="T7">
-        <v>0.2320583633305376</v>
+        <v>0.2256504908252406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J8">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P8">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q8">
         <v>105.7197731480892</v>
@@ -948,10 +948,10 @@
         <v>951.4779583328029</v>
       </c>
       <c r="S8">
-        <v>0.009295450357723639</v>
+        <v>0.008093946471400732</v>
       </c>
       <c r="T8">
-        <v>0.01061871732231205</v>
+        <v>0.009511426228276295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J9">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N9">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O9">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P9">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q9">
-        <v>24.895115071372</v>
+        <v>7.899176138295555</v>
       </c>
       <c r="R9">
-        <v>224.056035642348</v>
+        <v>71.09258524466</v>
       </c>
       <c r="S9">
-        <v>0.002188912247963319</v>
+        <v>0.0006047639616287404</v>
       </c>
       <c r="T9">
-        <v>0.002500517942646641</v>
+        <v>0.0007106752962694618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J10">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N10">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O10">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P10">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q10">
-        <v>913.0570340603837</v>
+        <v>1372.21107220763</v>
       </c>
       <c r="R10">
-        <v>5478.342204362301</v>
+        <v>8233.266433245779</v>
       </c>
       <c r="S10">
-        <v>0.08028087916902683</v>
+        <v>0.105057007172671</v>
       </c>
       <c r="T10">
-        <v>0.06113958474135007</v>
+        <v>0.08230364730127551</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J11">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N11">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O11">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P11">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q11">
-        <v>21.16778800288033</v>
+        <v>8.125135884802223</v>
       </c>
       <c r="R11">
-        <v>190.510092025923</v>
+        <v>73.12622296322</v>
       </c>
       <c r="S11">
-        <v>0.001861185629749419</v>
+        <v>0.000622063526681291</v>
       </c>
       <c r="T11">
-        <v>0.002126137338815101</v>
+        <v>0.000731004506174667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H12">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I12">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J12">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N12">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O12">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P12">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q12">
-        <v>1608.573471804986</v>
+        <v>2117.045527274617</v>
       </c>
       <c r="R12">
-        <v>14477.16124624487</v>
+        <v>19053.40974547155</v>
       </c>
       <c r="S12">
-        <v>0.1414344205314317</v>
+        <v>0.1620818193705024</v>
       </c>
       <c r="T12">
-        <v>0.1615685172284723</v>
+        <v>0.1904669462955497</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H13">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I13">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J13">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P13">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q13">
-        <v>73.60642703894943</v>
+        <v>89.23588989739721</v>
       </c>
       <c r="R13">
-        <v>662.457843350545</v>
+        <v>803.1230090765749</v>
       </c>
       <c r="S13">
-        <v>0.006471872462226598</v>
+        <v>0.006831934033244723</v>
       </c>
       <c r="T13">
-        <v>0.007393185007473858</v>
+        <v>0.008028399592616985</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H14">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I14">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J14">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N14">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O14">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P14">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q14">
-        <v>17.33299662458</v>
+        <v>6.667532394055556</v>
       </c>
       <c r="R14">
-        <v>155.99696962122</v>
+        <v>60.0077915465</v>
       </c>
       <c r="S14">
-        <v>0.001524010172143345</v>
+        <v>0.0005104688431200198</v>
       </c>
       <c r="T14">
-        <v>0.001740962792714151</v>
+        <v>0.0005998664261402461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H15">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I15">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J15">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N15">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O15">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P15">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q15">
-        <v>635.7076255340027</v>
+        <v>1158.255192091496</v>
       </c>
       <c r="R15">
-        <v>3814.245753204015</v>
+        <v>6949.531152548975</v>
       </c>
       <c r="S15">
-        <v>0.05589482931353124</v>
+        <v>0.08867646274532306</v>
       </c>
       <c r="T15">
-        <v>0.04256787779095976</v>
+        <v>0.06947081884524058</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H16">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I16">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J16">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N16">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O16">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P16">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q16">
-        <v>14.73787917637167</v>
+        <v>6.858260376722223</v>
       </c>
       <c r="R16">
-        <v>132.640912587345</v>
+        <v>61.7243433905</v>
       </c>
       <c r="S16">
-        <v>0.001295833505716975</v>
+        <v>0.0005250710507897225</v>
       </c>
       <c r="T16">
-        <v>0.001480303714661427</v>
+        <v>0.0006170258948260221</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H17">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I17">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J17">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N17">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O17">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P17">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q17">
-        <v>884.1725942708088</v>
+        <v>963.1298932408682</v>
       </c>
       <c r="R17">
-        <v>5305.035565624852</v>
+        <v>5778.779359445209</v>
       </c>
       <c r="S17">
-        <v>0.07774120406209531</v>
+        <v>0.07373759485822719</v>
       </c>
       <c r="T17">
-        <v>0.0592054419788024</v>
+        <v>0.05776742707015361</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H18">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I18">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J18">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.572043</v>
       </c>
       <c r="O18">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P18">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q18">
-        <v>40.45869628634716</v>
+        <v>40.59702637608199</v>
       </c>
       <c r="R18">
-        <v>242.752177718083</v>
+        <v>243.582158256492</v>
       </c>
       <c r="S18">
-        <v>0.003557345912397611</v>
+        <v>0.003108123945042634</v>
       </c>
       <c r="T18">
-        <v>0.002709171276106809</v>
+        <v>0.002434963110275837</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H19">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I19">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J19">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N19">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O19">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P19">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q19">
-        <v>9.527299101138</v>
+        <v>3.03333097004</v>
       </c>
       <c r="R19">
-        <v>57.16379460682801</v>
+        <v>18.19998582024</v>
       </c>
       <c r="S19">
-        <v>0.0008376913154529786</v>
+        <v>0.0002322329850930972</v>
       </c>
       <c r="T19">
-        <v>0.0006379613638809039</v>
+        <v>0.0001819357148201416</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H20">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I20">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J20">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N20">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O20">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P20">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q20">
-        <v>349.4246736740153</v>
+        <v>526.937274202539</v>
       </c>
       <c r="R20">
-        <v>1397.698694696061</v>
+        <v>2107.749096810156</v>
       </c>
       <c r="S20">
-        <v>0.03072329433918481</v>
+        <v>0.04034252027013781</v>
       </c>
       <c r="T20">
-        <v>0.01559864546599484</v>
+        <v>0.0210700624922029</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H21">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I21">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J21">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N21">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O21">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P21">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q21">
-        <v>8.100860230400501</v>
+        <v>3.12010086668</v>
       </c>
       <c r="R21">
-        <v>48.605161382403</v>
+        <v>18.72060520008</v>
       </c>
       <c r="S21">
-        <v>0.0007122711474329959</v>
+        <v>0.0002388761217346161</v>
       </c>
       <c r="T21">
-        <v>0.0005424450084261103</v>
+        <v>0.0001871400737661289</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H22">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I22">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J22">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N22">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O22">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P22">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q22">
-        <v>2173.569385278221</v>
+        <v>1811.929230698624</v>
       </c>
       <c r="R22">
-        <v>19562.12446750399</v>
+        <v>16307.36307628761</v>
       </c>
       <c r="S22">
-        <v>0.1911118962733677</v>
+        <v>0.1387219984164905</v>
       </c>
       <c r="T22">
-        <v>0.2183179001942284</v>
+        <v>0.163016157672855</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H23">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I23">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J23">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.572043</v>
       </c>
       <c r="O23">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P23">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q23">
-        <v>99.45997442818187</v>
+        <v>76.37488908452944</v>
       </c>
       <c r="R23">
-        <v>895.1397698536368</v>
+        <v>687.3740017607651</v>
       </c>
       <c r="S23">
-        <v>0.008745055228056334</v>
+        <v>0.005847290867181758</v>
       </c>
       <c r="T23">
-        <v>0.009989969916581657</v>
+        <v>0.006871317461140578</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H24">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I24">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J24">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N24">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O24">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P24">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q24">
-        <v>23.421044471188</v>
+        <v>5.706583389811112</v>
       </c>
       <c r="R24">
-        <v>210.789400240692</v>
+        <v>51.3592505083</v>
       </c>
       <c r="S24">
-        <v>0.002059304042423597</v>
+        <v>0.000436898217961703</v>
       </c>
       <c r="T24">
-        <v>0.002352459177948396</v>
+        <v>0.0005134114963684659</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H25">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I25">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J25">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N25">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O25">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P25">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q25">
-        <v>858.9937960981965</v>
+        <v>991.3232437002744</v>
       </c>
       <c r="R25">
-        <v>5153.962776589179</v>
+        <v>5947.939462201646</v>
       </c>
       <c r="S25">
-        <v>0.07552734887198993</v>
+        <v>0.07589608860705718</v>
       </c>
       <c r="T25">
-        <v>0.05751943419710454</v>
+        <v>0.05945843191587249</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H26">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I26">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J26">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N26">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O26">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P26">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q26">
-        <v>19.91441705534633</v>
+        <v>5.869822962344446</v>
       </c>
       <c r="R26">
-        <v>179.229753498117</v>
+        <v>52.8284066611</v>
       </c>
       <c r="S26">
-        <v>0.001750982523218955</v>
+        <v>0.0004493959023849223</v>
       </c>
       <c r="T26">
-        <v>0.002000246113403382</v>
+        <v>0.0005280978800548107</v>
       </c>
     </row>
   </sheetData>
